--- a/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/出口交货值.xlsx
+++ b/data_year/zb/工业/按行业分规模以上工业企业主要经济指标(2000-2002)/出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>193.3551</v>
-      </c>
-      <c r="C2" t="n">
-        <v>515.77423</v>
-      </c>
-      <c r="D2" t="n">
-        <v>378.78634</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1.11028</v>
-      </c>
-      <c r="F2" t="n">
-        <v>504.54966</v>
-      </c>
-      <c r="G2" t="n">
-        <v>546.3015</v>
-      </c>
-      <c r="H2" t="n">
-        <v>69.97463</v>
-      </c>
-      <c r="I2" t="n">
-        <v>167.93074</v>
-      </c>
-      <c r="J2" t="n">
-        <v>39.85252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>489.15224</v>
-      </c>
-      <c r="L2" t="n">
-        <v>139.01939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>398.24218</v>
-      </c>
-      <c r="N2" t="n">
-        <v>479.81102</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.88323</v>
-      </c>
-      <c r="P2" t="n">
-        <v>14.12985</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1294.10403</v>
-      </c>
-      <c r="R2" t="n">
-        <v>96.47565</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.30293</v>
-      </c>
-      <c r="T2" t="n">
-        <v>185.3072</v>
-      </c>
-      <c r="U2" t="n">
-        <v>11.1762</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.92833</v>
-      </c>
-      <c r="W2" t="n">
-        <v>79.36301</v>
-      </c>
-      <c r="X2" t="n">
-        <v>50.84123</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>2989.90417</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>953.0737800000001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>781.6244799999999</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>172.4569</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>198.77262</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1476.8156</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1.00358</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>14575.02577</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>124.16229</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>702.1675300000001</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>326.99647</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>32.91216</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>135.45892</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>402.45638</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>45.45501</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>319.81828</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.62161</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>225.17214</v>
-      </c>
-      <c r="C3" t="n">
-        <v>583.42697</v>
-      </c>
-      <c r="D3" t="n">
-        <v>459.07408</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.38558</v>
-      </c>
-      <c r="F3" t="n">
-        <v>557.67869</v>
-      </c>
-      <c r="G3" t="n">
-        <v>594.5367199999999</v>
-      </c>
-      <c r="H3" t="n">
-        <v>70.28655999999999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>183.37811</v>
-      </c>
-      <c r="J3" t="n">
-        <v>59.14409</v>
-      </c>
-      <c r="K3" t="n">
-        <v>501.49481</v>
-      </c>
-      <c r="L3" t="n">
-        <v>159.35756</v>
-      </c>
-      <c r="M3" t="n">
-        <v>433.01495</v>
-      </c>
-      <c r="N3" t="n">
-        <v>520.57149</v>
-      </c>
-      <c r="O3" t="n">
-        <v>235.43427</v>
-      </c>
-      <c r="P3" t="n">
-        <v>17.08975</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1355.35563</v>
-      </c>
-      <c r="R3" t="n">
-        <v>110.23556</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.7969000000000001</v>
-      </c>
-      <c r="T3" t="n">
-        <v>189.45141</v>
-      </c>
-      <c r="U3" t="n">
-        <v>14.5484</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.38688</v>
-      </c>
-      <c r="W3" t="n">
-        <v>114.73184</v>
-      </c>
-      <c r="X3" t="n">
-        <v>56.16952</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>3792.92552</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1102.80113</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>889.60496</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>174.06332</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>145.93083</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1588.88143</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.73645</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>16245.08997</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>126.50346</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>691.46609</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>375.79506</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>26.8948</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>143.25948</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>449.99291</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>54.1266</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>226.74592</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.32576</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>231.24179</v>
-      </c>
-      <c r="C4" t="n">
-        <v>714.61939</v>
-      </c>
-      <c r="D4" t="n">
-        <v>505.42266</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.43422</v>
-      </c>
-      <c r="F4" t="n">
-        <v>666.1835</v>
-      </c>
-      <c r="G4" t="n">
-        <v>682.09078</v>
-      </c>
-      <c r="H4" t="n">
-        <v>82.72248</v>
-      </c>
-      <c r="I4" t="n">
-        <v>203.95422</v>
-      </c>
-      <c r="J4" t="n">
-        <v>66.35439</v>
-      </c>
-      <c r="K4" t="n">
-        <v>619.91461</v>
-      </c>
-      <c r="L4" t="n">
-        <v>222.89487</v>
-      </c>
-      <c r="M4" t="n">
-        <v>514.92326</v>
-      </c>
-      <c r="N4" t="n">
-        <v>617.3282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>266.65365</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17.91855</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1544.09696</v>
-      </c>
-      <c r="R4" t="n">
-        <v>142.88443</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.14446</v>
-      </c>
-      <c r="T4" t="n">
-        <v>215.47106</v>
-      </c>
-      <c r="U4" t="n">
-        <v>18.21599</v>
-      </c>
-      <c r="V4" t="n">
-        <v>3.06627</v>
-      </c>
-      <c r="W4" t="n">
-        <v>131.43527</v>
-      </c>
-      <c r="X4" t="n">
-        <v>56.48447</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>5522.37386</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1359.51587</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1025.36351</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>216.69278</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>139.12565</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1763.76064</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>0.5648300000000001</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>20055.23502</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>148.6531</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>870.8148200000001</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>429.54697</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>33.12131</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>173.774</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>529.19019</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>61.32262</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>235.17789</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>1.1035</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
